--- a/ListMakerTwo/Templates/ReceiverSummeryTemplate01.xlsx
+++ b/ListMakerTwo/Templates/ReceiverSummeryTemplate01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Henrik\Dropbox\DevProjects\LugbulkListMaker\ListMakerTwo\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29055133-47FA-41FD-941D-2EAAA7DBE7FE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21060" windowHeight="9870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21060" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,28 +25,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
-    <t>[BID]</t>
+    <t>ElementId</t>
   </si>
   <si>
-    <t>[Buyer]</t>
+    <t>BLColor</t>
   </si>
   <si>
-    <t>[ElementID]</t>
+    <t>Description</t>
   </si>
   <si>
-    <t>[Amount]</t>
+    <t>Amount</t>
   </si>
   <si>
-    <t>[Color]</t>
+    <t>X - Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,7 +56,7 @@
     </font>
     <font>
       <b/>
-      <sz val="130"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,11 +64,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,15 +71,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -91,36 +99,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,359 +466,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G10"/>
-    <mergeCell ref="A11:G12"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/ListMakerTwo/Templates/ReceiverSummeryTemplate01.xlsx
+++ b/ListMakerTwo/Templates/ReceiverSummeryTemplate01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Henrik\Dropbox\DevProjects\LugbulkListMaker\ListMakerTwo\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Dropbox\DevProjects\LugbulkListMaker\ListMakerTwo\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29055133-47FA-41FD-941D-2EAAA7DBE7FE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EB52FA-10E2-4160-AFD1-63DDB1F19080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21060" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2940" windowWidth="20475" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ElementId</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>X - Name</t>
+  </si>
+  <si>
+    <t>Number of bags</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -123,11 +126,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -143,16 +157,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,50 +499,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -797,11 +819,18 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>